--- a/resultados/selecao_BRUMADO_0911.xlsx
+++ b/resultados/selecao_BRUMADO_0911.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="99">
   <si>
     <t>DATAREF</t>
   </si>
@@ -103,106 +103,208 @@
     <t>BRUMADO</t>
   </si>
   <si>
-    <t>007006582553</t>
-  </si>
-  <si>
-    <t>007013267205</t>
-  </si>
-  <si>
-    <t>000025745825</t>
-  </si>
-  <si>
-    <t>007031857869</t>
-  </si>
-  <si>
-    <t>007032907738</t>
-  </si>
-  <si>
-    <t>000021622877</t>
-  </si>
-  <si>
-    <t>007069252901</t>
-  </si>
-  <si>
-    <t>007024648650</t>
-  </si>
-  <si>
-    <t>000011145639</t>
-  </si>
-  <si>
-    <t>007059658276</t>
-  </si>
-  <si>
-    <t>000021491977</t>
-  </si>
-  <si>
-    <t>007033789682</t>
-  </si>
-  <si>
-    <t>007000873580</t>
-  </si>
-  <si>
-    <t>000029753989</t>
-  </si>
-  <si>
-    <t>007055815148</t>
-  </si>
-  <si>
-    <t>007049312967</t>
-  </si>
-  <si>
-    <t>007009234688</t>
-  </si>
-  <si>
-    <t>007033433195</t>
-  </si>
-  <si>
-    <t>000025560396</t>
-  </si>
-  <si>
-    <t>000204681570</t>
+    <t>007036562107</t>
+  </si>
+  <si>
+    <t>007045510225</t>
+  </si>
+  <si>
+    <t>000231746854</t>
+  </si>
+  <si>
+    <t>007064573165</t>
+  </si>
+  <si>
+    <t>007010033602</t>
+  </si>
+  <si>
+    <t>007065128939</t>
+  </si>
+  <si>
+    <t>000208795902</t>
+  </si>
+  <si>
+    <t>000011796877</t>
+  </si>
+  <si>
+    <t>007045069979</t>
+  </si>
+  <si>
+    <t>007043410258</t>
+  </si>
+  <si>
+    <t>000011799655</t>
+  </si>
+  <si>
+    <t>007023109004</t>
+  </si>
+  <si>
+    <t>007051676275</t>
+  </si>
+  <si>
+    <t>000228420662</t>
+  </si>
+  <si>
+    <t>007026831525</t>
+  </si>
+  <si>
+    <t>000206491132</t>
+  </si>
+  <si>
+    <t>007061078414</t>
+  </si>
+  <si>
+    <t>007000886925</t>
+  </si>
+  <si>
+    <t>007005364455</t>
+  </si>
+  <si>
+    <t>007056377772</t>
+  </si>
+  <si>
+    <t>007031622527</t>
+  </si>
+  <si>
+    <t>007069640057</t>
+  </si>
+  <si>
+    <t>007022020271</t>
+  </si>
+  <si>
+    <t>007025252238</t>
+  </si>
+  <si>
+    <t>007067297894</t>
+  </si>
+  <si>
+    <t>000213610708</t>
+  </si>
+  <si>
+    <t>000226143998</t>
+  </si>
+  <si>
+    <t>000018785420</t>
+  </si>
+  <si>
+    <t>007040758709</t>
+  </si>
+  <si>
+    <t>000025611357</t>
+  </si>
+  <si>
+    <t>007051811377</t>
+  </si>
+  <si>
+    <t>007056905370</t>
+  </si>
+  <si>
+    <t>007010053379</t>
+  </si>
+  <si>
+    <t>000011798705</t>
+  </si>
+  <si>
+    <t>007042623762</t>
+  </si>
+  <si>
+    <t>007037230655</t>
+  </si>
+  <si>
+    <t>007032320680</t>
+  </si>
+  <si>
+    <t>007026355693</t>
+  </si>
+  <si>
+    <t>007067218773</t>
+  </si>
+  <si>
+    <t>000206377186</t>
+  </si>
+  <si>
+    <t>007066856768</t>
+  </si>
+  <si>
+    <t>007026675043</t>
+  </si>
+  <si>
+    <t>000011800149</t>
+  </si>
+  <si>
+    <t>007065368883</t>
+  </si>
+  <si>
+    <t>007018884385</t>
+  </si>
+  <si>
+    <t>007058549201</t>
+  </si>
+  <si>
+    <t>007046525072</t>
+  </si>
+  <si>
+    <t>007068054278</t>
+  </si>
+  <si>
+    <t>000208798138</t>
+  </si>
+  <si>
+    <t>007046336482</t>
+  </si>
+  <si>
+    <t>000218759041</t>
+  </si>
+  <si>
+    <t>007051586713</t>
+  </si>
+  <si>
+    <t>007011230690</t>
+  </si>
+  <si>
+    <t>007035522217</t>
+  </si>
+  <si>
+    <t>000019072380</t>
+  </si>
+  <si>
+    <t>000011798403</t>
+  </si>
+  <si>
+    <t>000200856287</t>
+  </si>
+  <si>
+    <t>000232535350</t>
+  </si>
+  <si>
+    <t>007022448360</t>
+  </si>
+  <si>
+    <t>007045518480</t>
   </si>
   <si>
     <t>0044</t>
   </si>
   <si>
-    <t>DR JURACY</t>
-  </si>
-  <si>
-    <t>SAO JORGE</t>
-  </si>
-  <si>
-    <t>CENTRO-BRUMADO</t>
-  </si>
-  <si>
-    <t>OLHOS DAGUA</t>
-  </si>
-  <si>
-    <t>NOVO BRUMADO</t>
-  </si>
-  <si>
-    <t>PARQUE ALVORADA</t>
-  </si>
-  <si>
-    <t>DAS FLORES</t>
-  </si>
-  <si>
-    <t>DO MERCADO</t>
-  </si>
-  <si>
-    <t>CENTENARIO</t>
-  </si>
-  <si>
-    <t>RODOVIARIO</t>
-  </si>
-  <si>
-    <t>NOBRE BRUMADO</t>
+    <t>SAO FELIX</t>
+  </si>
+  <si>
+    <t>CID DAS ESMERALDAS</t>
+  </si>
+  <si>
+    <t>MALHADA BRANCA</t>
+  </si>
+  <si>
+    <t>URBIS II</t>
+  </si>
+  <si>
+    <t>URBIS III</t>
   </si>
   <si>
     <t>U</t>
   </si>
   <si>
-    <t>MIX080</t>
+    <t>MIX003</t>
   </si>
   <si>
     <t>MIX</t>
@@ -570,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AA61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,19 +775,19 @@
         <v>29</v>
       </c>
       <c r="E2">
-        <v>0.07080594455558731</v>
+        <v>0.1947840843120618</v>
       </c>
       <c r="F2">
-        <v>0.008855307123268485</v>
+        <v>0.006449589087823061</v>
       </c>
       <c r="G2">
-        <v>-14.21532166</v>
+        <v>-14.20116333</v>
       </c>
       <c r="H2">
-        <v>-41.67312</v>
+        <v>-41.6588</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J2" t="s">
         <v>28</v>
@@ -694,52 +796,52 @@
         <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M2">
-        <v>8.427312775330396</v>
+        <v>6.231277533039647</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="P2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q2">
-        <v>54.84299043734921</v>
+        <v>30.15976521361176</v>
       </c>
       <c r="R2">
-        <v>159.28</v>
+        <v>298.12</v>
       </c>
       <c r="S2">
-        <v>27.748260294</v>
+        <v>22.615347459</v>
       </c>
       <c r="T2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>54.84299043734921</v>
+        <v>30.15976521361176</v>
       </c>
       <c r="V2">
-        <v>444.9635114219105</v>
+        <v>473.9917979560893</v>
       </c>
       <c r="W2">
         <v>1</v>
       </c>
       <c r="X2">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Y2" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Z2" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="AA2" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -756,19 +858,19 @@
         <v>30</v>
       </c>
       <c r="E3">
-        <v>0.07514647042012002</v>
+        <v>0.2890724780065199</v>
       </c>
       <c r="F3">
-        <v>0.02571142112034696</v>
+        <v>0.03037518970521628</v>
       </c>
       <c r="G3">
-        <v>-14.21796</v>
+        <v>-14.20443333</v>
       </c>
       <c r="H3">
-        <v>-41.6697</v>
+        <v>-41.65843833</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s">
         <v>28</v>
@@ -777,52 +879,52 @@
         <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="M3">
-        <v>8.353524229074889</v>
+        <v>4.417173252279635</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="P3" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q3">
-        <v>59.59598468966895</v>
+        <v>17.72702309219683</v>
       </c>
       <c r="R3">
-        <v>164.14</v>
+        <v>403.69</v>
       </c>
       <c r="S3">
-        <v>52.013809079</v>
+        <v>50.852256003</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>59.59598468966895</v>
+        <v>17.72702309219683</v>
       </c>
       <c r="V3">
-        <v>910.5093701781655</v>
+        <v>624.0230524522746</v>
       </c>
       <c r="W3">
         <v>1</v>
       </c>
       <c r="X3">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Z3" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="AA3" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -839,19 +941,19 @@
         <v>31</v>
       </c>
       <c r="E4">
-        <v>0.04913010860245783</v>
+        <v>0.301692493189836</v>
       </c>
       <c r="F4">
-        <v>0.009373945347056774</v>
+        <v>0.01497440166829891</v>
       </c>
       <c r="G4">
-        <v>-14.211945</v>
+        <v>-14.20154333</v>
       </c>
       <c r="H4">
-        <v>-41.671315</v>
+        <v>-41.64911666</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
         <v>28</v>
@@ -860,52 +962,52 @@
         <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="M4">
-        <v>8.44273127753304</v>
+        <v>6.238986784140969</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q4">
-        <v>54.64275693745837</v>
+        <v>34.85823114395777</v>
       </c>
       <c r="R4">
-        <v>135.01</v>
+        <v>417.82</v>
       </c>
       <c r="S4">
-        <v>28.494876099</v>
+        <v>32.676300872</v>
       </c>
       <c r="T4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>54.64275693745837</v>
+        <v>34.85823114395777</v>
       </c>
       <c r="V4">
-        <v>474.4039775546014</v>
+        <v>594.4261976070425</v>
       </c>
       <c r="W4">
         <v>1</v>
       </c>
       <c r="X4">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Y4" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Z4" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="AA4" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -922,19 +1024,19 @@
         <v>32</v>
       </c>
       <c r="E5">
-        <v>0.3632198485281509</v>
+        <v>0.2808913499754387</v>
       </c>
       <c r="F5">
-        <v>0.04067059706233383</v>
+        <v>0.05425187334293721</v>
       </c>
       <c r="G5">
-        <v>-14.21688833</v>
+        <v>-14.200295</v>
       </c>
       <c r="H5">
-        <v>-41.66728166</v>
+        <v>-41.64795</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
         <v>28</v>
@@ -943,10 +1045,10 @@
         <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="M5">
-        <v>7.285242290748899</v>
+        <v>8.388766519823788</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -955,40 +1057,40 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="P5" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q5">
-        <v>54.29878475827315</v>
+        <v>67.55000482650313</v>
       </c>
       <c r="R5">
-        <v>486.69</v>
+        <v>394.53</v>
       </c>
       <c r="S5">
-        <v>73.54858356299999</v>
+        <v>79.03143290200001</v>
       </c>
       <c r="T5">
         <v>4</v>
       </c>
       <c r="U5">
-        <v>54.29878475827315</v>
+        <v>67.55000482650313</v>
       </c>
       <c r="V5">
-        <v>1047.029480694235</v>
+        <v>704.729899891991</v>
       </c>
       <c r="W5">
         <v>1</v>
       </c>
       <c r="X5">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Y5" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Z5" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="AA5" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -1005,19 +1107,19 @@
         <v>33</v>
       </c>
       <c r="E6">
-        <v>0.5799603458130894</v>
+        <v>0.403947662215871</v>
       </c>
       <c r="F6">
-        <v>0.04031839321096511</v>
+        <v>0.05416916202460131</v>
       </c>
       <c r="G6">
-        <v>-14.20335333</v>
+        <v>-14.20094333</v>
       </c>
       <c r="H6">
-        <v>-41.684035</v>
+        <v>-41.653825</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
         <v>28</v>
@@ -1026,10 +1128,10 @@
         <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="M6">
-        <v>7.291850220264317</v>
+        <v>6.227973568281938</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -1038,40 +1140,40 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="P6" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q6">
-        <v>55.80866907579892</v>
+        <v>43.68400910010055</v>
       </c>
       <c r="R6">
-        <v>729.37</v>
+        <v>532.3099999999999</v>
       </c>
       <c r="S6">
-        <v>73.041561616</v>
+        <v>78.933817299</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
-        <v>55.80866907579892</v>
+        <v>43.68400910010055</v>
       </c>
       <c r="V6">
-        <v>1332.010121725145</v>
+        <v>98.62282953619226</v>
       </c>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="X6">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Y6" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Z6" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="AA6" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1088,19 +1190,19 @@
         <v>34</v>
       </c>
       <c r="E7">
-        <v>0.128867176336096</v>
+        <v>0.4901978296789175</v>
       </c>
       <c r="F7">
-        <v>0.003878819555443705</v>
+        <v>0.01292141954685412</v>
       </c>
       <c r="G7">
-        <v>-14.21249</v>
+        <v>-14.19541</v>
       </c>
       <c r="H7">
-        <v>-41.67841</v>
+        <v>-41.65729</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
         <v>28</v>
@@ -1109,52 +1211,52 @@
         <v>28</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="M7">
-        <v>8.418502202643172</v>
+        <v>4.367021276595745</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="P7" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q7">
-        <v>53.39379173087541</v>
+        <v>14.03999021625995</v>
       </c>
       <c r="R7">
-        <v>224.29</v>
+        <v>628.88</v>
       </c>
       <c r="S7">
-        <v>20.584260224</v>
+        <v>30.253378692</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U7">
-        <v>53.39379173087541</v>
+        <v>14.03999021625995</v>
       </c>
       <c r="V7">
-        <v>292.9830591313638</v>
+        <v>625.1072810544522</v>
       </c>
       <c r="W7">
         <v>1</v>
       </c>
       <c r="X7">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Y7" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Z7" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="AA7" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1171,19 +1273,19 @@
         <v>35</v>
       </c>
       <c r="E8">
-        <v>0.02514111174621321</v>
+        <v>0.0442281069977225</v>
       </c>
       <c r="F8">
-        <v>0.007369668238556636</v>
+        <v>0.01013996140243196</v>
       </c>
       <c r="G8">
-        <v>-14.20281166</v>
+        <v>-14.19714166</v>
       </c>
       <c r="H8">
-        <v>-41.68424</v>
+        <v>-41.65439833</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
         <v>28</v>
@@ -1192,52 +1294,52 @@
         <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="M8">
-        <v>8.378854625550661</v>
+        <v>8.427312775330396</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="P8" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q8">
-        <v>52.15211027331603</v>
+        <v>54.0588319895311</v>
       </c>
       <c r="R8">
-        <v>108.15</v>
+        <v>129.55</v>
       </c>
       <c r="S8">
-        <v>25.609579763</v>
+        <v>26.970711707</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U8">
-        <v>52.15211027331603</v>
+        <v>54.0588319895311</v>
       </c>
       <c r="V8">
-        <v>1391.615041026613</v>
+        <v>354.8330062905956</v>
       </c>
       <c r="W8">
         <v>1</v>
       </c>
       <c r="X8">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Y8" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Z8" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="AA8" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1254,19 +1356,19 @@
         <v>36</v>
       </c>
       <c r="E9">
-        <v>0.3392308516719063</v>
+        <v>0.0137185727682758</v>
       </c>
       <c r="F9">
-        <v>0.04629994112930917</v>
+        <v>0.007875996516844916</v>
       </c>
       <c r="G9">
-        <v>-14.21022333</v>
+        <v>-14.20286333</v>
       </c>
       <c r="H9">
-        <v>-41.68043166</v>
+        <v>-41.65884833</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
         <v>28</v>
@@ -1275,52 +1377,52 @@
         <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="M9">
-        <v>7.262114537444934</v>
+        <v>5.147577092511013</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q9">
-        <v>54.73596514073922</v>
+        <v>14.08819264540404</v>
       </c>
       <c r="R9">
-        <v>459.83</v>
+        <v>95.39</v>
       </c>
       <c r="S9">
-        <v>81.652415983</v>
+        <v>24.298788421</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>54.73596514073922</v>
+        <v>14.08819264540404</v>
       </c>
       <c r="V9">
-        <v>554.7677724943014</v>
+        <v>547.9380573585137</v>
       </c>
       <c r="W9">
         <v>1</v>
       </c>
       <c r="X9">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Y9" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Z9" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="AA9" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1337,19 +1439,19 @@
         <v>37</v>
       </c>
       <c r="E10">
-        <v>0.1827932980851672</v>
+        <v>0.07924797927923903</v>
       </c>
       <c r="F10">
-        <v>0.06969975629223893</v>
+        <v>0.01377217841340786</v>
       </c>
       <c r="G10">
-        <v>-14.21083166</v>
+        <v>-14.20150166</v>
       </c>
       <c r="H10">
-        <v>-41.67453</v>
+        <v>-41.64816666</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s">
         <v>28</v>
@@ -1358,10 +1460,10 @@
         <v>28</v>
       </c>
       <c r="L10" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="M10">
-        <v>8.388766519823788</v>
+        <v>6.193832599118942</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -1370,40 +1472,40 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="P10" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q10">
-        <v>69.00016440751156</v>
+        <v>30.58251114308868</v>
       </c>
       <c r="R10">
-        <v>284.67</v>
+        <v>168.76</v>
       </c>
       <c r="S10">
-        <v>115.338077844</v>
+        <v>31.257441273</v>
       </c>
       <c r="T10">
         <v>3</v>
       </c>
       <c r="U10">
-        <v>69.00016440751156</v>
+        <v>30.58251114308868</v>
       </c>
       <c r="V10">
-        <v>198.5251092435687</v>
+        <v>693.6718339493087</v>
       </c>
       <c r="W10">
         <v>1</v>
       </c>
       <c r="X10">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Y10" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Z10" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="AA10" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1420,19 +1522,19 @@
         <v>38</v>
       </c>
       <c r="E11">
-        <v>0.4402418548156615</v>
+        <v>0.03379627562184611</v>
       </c>
       <c r="F11">
-        <v>0.03587701390178341</v>
+        <v>0.009800427854239005</v>
       </c>
       <c r="G11">
-        <v>-14.20745</v>
+        <v>-14.20185</v>
       </c>
       <c r="H11">
-        <v>-41.67950833</v>
+        <v>-41.65637166</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s">
         <v>28</v>
@@ -1441,52 +1543,52 @@
         <v>28</v>
       </c>
       <c r="L11" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="M11">
-        <v>7.272026431718062</v>
+        <v>8.388766519823788</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="P11" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q11">
-        <v>53.88707171285048</v>
+        <v>53.12779619672439</v>
       </c>
       <c r="R11">
-        <v>572.9299999999999</v>
+        <v>117.87</v>
       </c>
       <c r="S11">
-        <v>66.64788711200001</v>
+        <v>26.569995424</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>53.88707171285048</v>
+        <v>53.12779619672439</v>
       </c>
       <c r="V11">
-        <v>668.7756959567108</v>
+        <v>264.1250018172</v>
       </c>
       <c r="W11">
         <v>1</v>
       </c>
       <c r="X11">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Y11" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Z11" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="AA11" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1503,19 +1605,19 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>0.2556891254644184</v>
+        <v>0.1384539811548252</v>
       </c>
       <c r="F12">
-        <v>0.03952682531494353</v>
+        <v>0.01274495939929158</v>
       </c>
       <c r="G12">
-        <v>-14.20916166</v>
+        <v>-14.198695</v>
       </c>
       <c r="H12">
-        <v>-41.66781166</v>
+        <v>-41.65910833</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s">
         <v>28</v>
@@ -1524,10 +1626,10 @@
         <v>28</v>
       </c>
       <c r="L12" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="M12">
-        <v>7.268722466960353</v>
+        <v>6.233480176211454</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -1536,40 +1638,40 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="P12" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q12">
-        <v>52.86039178208484</v>
+        <v>31.9028318091947</v>
       </c>
       <c r="R12">
-        <v>366.29</v>
+        <v>235.05</v>
       </c>
       <c r="S12">
-        <v>71.90204455999999</v>
+        <v>30.045121055</v>
       </c>
       <c r="T12">
         <v>4</v>
       </c>
       <c r="U12">
-        <v>52.86039178208484</v>
+        <v>31.9028318091947</v>
       </c>
       <c r="V12">
-        <v>915.9307212941977</v>
+        <v>530.3215924377756</v>
       </c>
       <c r="W12">
         <v>1</v>
       </c>
       <c r="X12">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Y12" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Z12" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="AA12" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -1586,19 +1688,19 @@
         <v>40</v>
       </c>
       <c r="E13">
-        <v>0.293190911689054</v>
+        <v>0.3060688608047158</v>
       </c>
       <c r="F13">
-        <v>0.03710377826339568</v>
+        <v>0.005833593913041495</v>
       </c>
       <c r="G13">
-        <v>-14.21703333</v>
+        <v>-14.20185833</v>
       </c>
       <c r="H13">
-        <v>-41.66963166</v>
+        <v>-41.647945</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s">
         <v>28</v>
@@ -1607,10 +1709,10 @@
         <v>28</v>
       </c>
       <c r="L13" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="M13">
-        <v>8.388766519823788</v>
+        <v>7.276431718061674</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1619,40 +1721,40 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="P13" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q13">
-        <v>65.76486803467517</v>
+        <v>43.22447458649086</v>
       </c>
       <c r="R13">
-        <v>408.28</v>
+        <v>422.72</v>
       </c>
       <c r="S13">
-        <v>68.413899757</v>
+        <v>21.88835215</v>
       </c>
       <c r="T13">
         <v>3</v>
       </c>
       <c r="U13">
-        <v>65.76486803467517</v>
+        <v>43.22447458649086</v>
       </c>
       <c r="V13">
-        <v>846.9612170424517</v>
+        <v>725.3998774059016</v>
       </c>
       <c r="W13">
         <v>1</v>
       </c>
       <c r="X13">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Y13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Z13" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="AA13" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -1669,19 +1771,19 @@
         <v>41</v>
       </c>
       <c r="E14">
-        <v>0.07312803658188052</v>
+        <v>0.2005269503862814</v>
       </c>
       <c r="F14">
-        <v>0.007946458101364412</v>
+        <v>0.01889819709445653</v>
       </c>
       <c r="G14">
-        <v>-14.21676</v>
+        <v>-14.19966</v>
       </c>
       <c r="H14">
-        <v>-41.68176666</v>
+        <v>-41.65696333</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s">
         <v>28</v>
@@ -1690,52 +1792,52 @@
         <v>28</v>
       </c>
       <c r="L14" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M14">
-        <v>8.353524229074889</v>
+        <v>4.379179331306991</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.7142857142857143</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="P14" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q14">
-        <v>53.6280576067922</v>
+        <v>13.41712801696334</v>
       </c>
       <c r="R14">
-        <v>161.88</v>
+        <v>304.55</v>
       </c>
       <c r="S14">
-        <v>26.439908898</v>
+        <v>37.307150244</v>
       </c>
       <c r="T14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U14">
-        <v>53.6280576067922</v>
+        <v>13.41712801696334</v>
       </c>
       <c r="V14">
-        <v>826.5193420344971</v>
+        <v>277.1447286252267</v>
       </c>
       <c r="W14">
         <v>1</v>
       </c>
       <c r="X14">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Y14" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Z14" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="AA14" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -1752,19 +1854,19 @@
         <v>42</v>
       </c>
       <c r="E15">
-        <v>0.01417369248356674</v>
+        <v>0.09886125128388334</v>
       </c>
       <c r="F15">
-        <v>0.005747594108864886</v>
+        <v>0.02263403143083367</v>
       </c>
       <c r="G15">
-        <v>-14.21773</v>
+        <v>-14.19941833</v>
       </c>
       <c r="H15">
-        <v>-41.66942333</v>
+        <v>-41.660035</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
         <v>28</v>
@@ -1773,52 +1875,52 @@
         <v>28</v>
       </c>
       <c r="L15" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="M15">
-        <v>8.481277533039648</v>
+        <v>6.227973568281938</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="P15" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q15">
-        <v>52.05413555938807</v>
+        <v>34.06596920443612</v>
       </c>
       <c r="R15">
-        <v>95.87</v>
+        <v>190.72</v>
       </c>
       <c r="S15">
-        <v>23.274491205</v>
+        <v>41.716168608</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>52.05413555938807</v>
+        <v>34.06596920443612</v>
       </c>
       <c r="V15">
-        <v>914.5818833194777</v>
+        <v>606.5735751435354</v>
       </c>
       <c r="W15">
         <v>1</v>
       </c>
       <c r="X15">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Y15" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Z15" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="AA15" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -1835,19 +1937,19 @@
         <v>43</v>
       </c>
       <c r="E16">
-        <v>0.04225314375535867</v>
+        <v>0.1102666011700085</v>
       </c>
       <c r="F16">
-        <v>0.01208665467653871</v>
+        <v>0.01110915278318738</v>
       </c>
       <c r="G16">
-        <v>-14.217435</v>
+        <v>-14.20282</v>
       </c>
       <c r="H16">
-        <v>-41.68509333</v>
+        <v>-41.659465</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s">
         <v>28</v>
@@ -1856,52 +1958,52 @@
         <v>28</v>
       </c>
       <c r="L16" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="M16">
-        <v>8.447136563876652</v>
+        <v>7.269823788546256</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="P16" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q16">
-        <v>55.59985025750975</v>
+        <v>42.73509863930377</v>
       </c>
       <c r="R16">
-        <v>127.31</v>
+        <v>203.49</v>
       </c>
       <c r="S16">
-        <v>32.400009903</v>
+        <v>28.114547919</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>55.59985025750975</v>
+        <v>42.73509863930377</v>
       </c>
       <c r="V16">
-        <v>1166.940813957239</v>
+        <v>603.7084385162184</v>
       </c>
       <c r="W16">
         <v>1</v>
       </c>
       <c r="X16">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Y16" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Z16" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="AA16" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -1918,19 +2020,19 @@
         <v>44</v>
       </c>
       <c r="E17">
-        <v>0.0357780794512718</v>
+        <v>0.2428348144509445</v>
       </c>
       <c r="F17">
-        <v>0.007284746461578546</v>
+        <v>0.02900341814282671</v>
       </c>
       <c r="G17">
-        <v>-14.20688333</v>
+        <v>-14.20167666</v>
       </c>
       <c r="H17">
-        <v>-41.67610833</v>
+        <v>-41.65071833</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
         <v>28</v>
@@ -1939,52 +2041,52 @@
         <v>28</v>
       </c>
       <c r="L17" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="M17">
-        <v>8.41079295154185</v>
+        <v>7.319383259911894</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="P17" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q17">
-        <v>52.86503592240523</v>
+        <v>50.45022213532902</v>
       </c>
       <c r="R17">
-        <v>120.06</v>
+        <v>351.92</v>
       </c>
       <c r="S17">
-        <v>25.487328957</v>
+        <v>49.233296096</v>
       </c>
       <c r="T17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>52.86503592240523</v>
+        <v>50.45022213532902</v>
       </c>
       <c r="V17">
-        <v>593.2121170726934</v>
+        <v>432.9532387046098</v>
       </c>
       <c r="W17">
         <v>1</v>
       </c>
       <c r="X17">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Y17" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Z17" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="AA17" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -2001,19 +2103,19 @@
         <v>45</v>
       </c>
       <c r="E18">
-        <v>0.07170798799657044</v>
+        <v>0.5177421515652213</v>
       </c>
       <c r="F18">
-        <v>0.01210623128372737</v>
+        <v>0.006302609830034756</v>
       </c>
       <c r="G18">
-        <v>-14.21798833</v>
+        <v>-14.196795</v>
       </c>
       <c r="H18">
-        <v>-41.669695</v>
+        <v>-41.65339333</v>
       </c>
       <c r="I18" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s">
         <v>28</v>
@@ -2022,52 +2124,52 @@
         <v>28</v>
       </c>
       <c r="L18" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="M18">
-        <v>8.447136563876652</v>
+        <v>8.353524229074889</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="P18" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q18">
-        <v>56.45818425599867</v>
+        <v>57.53904827698304</v>
       </c>
       <c r="R18">
-        <v>160.29</v>
+        <v>659.72</v>
       </c>
       <c r="S18">
-        <v>32.428191791</v>
+        <v>22.441883063</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>56.45818425599867</v>
+        <v>57.53904827698304</v>
       </c>
       <c r="V18">
-        <v>913.1089231336165</v>
+        <v>410.5556700831214</v>
       </c>
       <c r="W18">
         <v>1</v>
       </c>
       <c r="X18">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Y18" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Z18" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="AA18" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -2084,19 +2186,19 @@
         <v>46</v>
       </c>
       <c r="E19">
-        <v>0.1284652757930837</v>
+        <v>0.07890858750502389</v>
       </c>
       <c r="F19">
-        <v>0.05217974143085578</v>
+        <v>0.02231985373538101</v>
       </c>
       <c r="G19">
-        <v>-14.218795</v>
+        <v>-14.198435</v>
       </c>
       <c r="H19">
-        <v>-41.67066333</v>
+        <v>-41.656635</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s">
         <v>28</v>
@@ -2105,52 +2207,52 @@
         <v>28</v>
       </c>
       <c r="L19" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="M19">
-        <v>8.388766519823788</v>
+        <v>6.158590308370044</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q19">
-        <v>65.95459365387208</v>
+        <v>32.72273460737331</v>
       </c>
       <c r="R19">
-        <v>223.84</v>
+        <v>168.38</v>
       </c>
       <c r="S19">
-        <v>90.116797577</v>
+        <v>41.345377212</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>65.95459365387208</v>
+        <v>32.72273460737331</v>
       </c>
       <c r="V19">
-        <v>912.57251631004</v>
+        <v>313.1577766501466</v>
       </c>
       <c r="W19">
         <v>1</v>
       </c>
       <c r="X19">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Y19" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Z19" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="AA19" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -2167,19 +2269,19 @@
         <v>47</v>
       </c>
       <c r="E20">
-        <v>0.7071216776221777</v>
+        <v>0.2294734961818425</v>
       </c>
       <c r="F20">
-        <v>0.02434020689449815</v>
+        <v>0.01320079985112981</v>
       </c>
       <c r="G20">
-        <v>-14.21152833</v>
+        <v>-14.20323</v>
       </c>
       <c r="H20">
-        <v>-41.68042</v>
+        <v>-41.65468333</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s">
         <v>28</v>
@@ -2188,10 +2290,10 @@
         <v>28</v>
       </c>
       <c r="L20" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="M20">
-        <v>7.262114537444934</v>
+        <v>5.104625550660793</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -2200,40 +2302,40 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="P20" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q20">
-        <v>52.81653214789806</v>
+        <v>20.35498903150918</v>
       </c>
       <c r="R20">
-        <v>871.75</v>
+        <v>336.96</v>
       </c>
       <c r="S20">
-        <v>50.039850805</v>
+        <v>30.583102331</v>
       </c>
       <c r="T20">
         <v>3</v>
       </c>
       <c r="U20">
-        <v>52.81653214789806</v>
+        <v>20.35498903150918</v>
       </c>
       <c r="V20">
-        <v>513.4429676980062</v>
+        <v>322.9805808927414</v>
       </c>
       <c r="W20">
         <v>1</v>
       </c>
       <c r="X20">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="Y20" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Z20" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="AA20" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -2250,73 +2352,3393 @@
         <v>48</v>
       </c>
       <c r="E21">
-        <v>0.08801621891969134</v>
+        <v>0.267664002143527</v>
       </c>
       <c r="F21">
-        <v>0.008053599878444078</v>
+        <v>0.07441915702086924</v>
       </c>
       <c r="G21">
-        <v>-14.20149166</v>
+        <v>-14.20339666</v>
       </c>
       <c r="H21">
-        <v>-41.680975</v>
+        <v>-41.65881666</v>
       </c>
       <c r="I21" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>90</v>
+      </c>
+      <c r="M21">
+        <v>8.440528634361234</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="P21" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q21">
+        <v>70.41203731868794</v>
+      </c>
+      <c r="R21">
+        <v>379.72</v>
+      </c>
+      <c r="S21">
+        <v>102.832789194</v>
+      </c>
+      <c r="T21">
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <v>70.41203731868794</v>
+      </c>
+      <c r="V21">
+        <v>577.8793138114556</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>700</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
         <v>49</v>
       </c>
-      <c r="J21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="E22">
+        <v>0.3363461796096995</v>
+      </c>
+      <c r="F22">
+        <v>0.03662055908186529</v>
+      </c>
+      <c r="G22">
+        <v>-14.20031666</v>
+      </c>
+      <c r="H22">
+        <v>-41.64872333</v>
+      </c>
+      <c r="I22" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s">
+        <v>92</v>
+      </c>
+      <c r="M22">
+        <v>4.419452887537994</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P22" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q22">
+        <v>19.44517770008262</v>
+      </c>
+      <c r="R22">
+        <v>456.62</v>
+      </c>
+      <c r="S22">
+        <v>58.223018674</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>19.44517770008262</v>
+      </c>
+      <c r="V22">
+        <v>621.3574949618842</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>700</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>0.1010940919037199</v>
+      </c>
+      <c r="F23">
+        <v>0.01288081868364547</v>
+      </c>
+      <c r="G23">
+        <v>-14.20194666</v>
+      </c>
+      <c r="H23">
+        <v>-41.65064166</v>
+      </c>
+      <c r="I23" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" t="s">
+        <v>92</v>
+      </c>
+      <c r="M23">
+        <v>7.318281938325991</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P23" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q23">
+        <v>43.75904858228813</v>
+      </c>
+      <c r="R23">
+        <v>193.22</v>
+      </c>
+      <c r="S23">
+        <v>30.205461698</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>43.75904858228813</v>
+      </c>
+      <c r="V23">
+        <v>451.7904858956198</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>700</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24">
+        <v>0.06797659983030409</v>
+      </c>
+      <c r="F24">
+        <v>0.008050850081855227</v>
+      </c>
+      <c r="G24">
+        <v>-14.198095</v>
+      </c>
+      <c r="H24">
+        <v>-41.65189166</v>
+      </c>
+      <c r="I24" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" t="s">
+        <v>92</v>
+      </c>
+      <c r="M24">
+        <v>6.210352422907489</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P24" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q24">
+        <v>28.26254198070737</v>
+      </c>
+      <c r="R24">
+        <v>156.14</v>
+      </c>
+      <c r="S24">
+        <v>24.505149975</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>28.26254198070737</v>
+      </c>
+      <c r="V24">
+        <v>374.3645067994781</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>700</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25">
+        <v>0.2028133791809941</v>
+      </c>
+      <c r="F25">
+        <v>0.02875619253067503</v>
+      </c>
+      <c r="G25">
+        <v>-14.19898666</v>
+      </c>
+      <c r="H25">
+        <v>-41.65663833</v>
+      </c>
+      <c r="I25" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" t="s">
+        <v>90</v>
+      </c>
+      <c r="M25">
+        <v>6.192731277533039</v>
+      </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P25" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q25">
+        <v>36.87800043664594</v>
+      </c>
+      <c r="R25">
+        <v>307.11</v>
+      </c>
+      <c r="S25">
+        <v>48.94152131</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>36.87800043664594</v>
+      </c>
+      <c r="V25">
+        <v>275.9058792500007</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>700</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
         <v>53</v>
       </c>
-      <c r="M21">
-        <v>8.387665198237885</v>
-      </c>
-      <c r="N21" t="b">
-        <v>0</v>
-      </c>
-      <c r="O21">
+      <c r="E26">
+        <v>0.1590764971196356</v>
+      </c>
+      <c r="F26">
+        <v>0.01590614920436464</v>
+      </c>
+      <c r="G26">
+        <v>-14.19755666</v>
+      </c>
+      <c r="H26">
+        <v>-41.652645</v>
+      </c>
+      <c r="I26" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" t="s">
+        <v>92</v>
+      </c>
+      <c r="M26">
+        <v>4.503039513677812</v>
+      </c>
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P26" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q26">
+        <v>13.32871337031494</v>
+      </c>
+      <c r="R26">
+        <v>258.14</v>
+      </c>
+      <c r="S26">
+        <v>33.775945992</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>13.32871337031494</v>
+      </c>
+      <c r="V26">
+        <v>366.9521616160624</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>700</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27">
+        <v>0.1987138838029741</v>
+      </c>
+      <c r="F27">
+        <v>0.01844354060993006</v>
+      </c>
+      <c r="G27">
+        <v>-14.19983833</v>
+      </c>
+      <c r="H27">
+        <v>-41.65529166</v>
+      </c>
+      <c r="I27" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" t="s">
+        <v>92</v>
+      </c>
+      <c r="M27">
+        <v>4.370820668693009</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P27" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q27">
+        <v>13.1634970253283</v>
+      </c>
+      <c r="R27">
+        <v>302.52</v>
+      </c>
+      <c r="S27">
+        <v>36.770566282</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>13.1634970253283</v>
+      </c>
+      <c r="V27">
+        <v>102.5856456180519</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>700</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28">
+        <v>0.1017996695395882</v>
+      </c>
+      <c r="F28">
+        <v>0.01006066934285821</v>
+      </c>
+      <c r="G28">
+        <v>-14.200325</v>
+      </c>
+      <c r="H28">
+        <v>-41.65091</v>
+      </c>
+      <c r="I28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>92</v>
+      </c>
+      <c r="M28">
+        <v>8.405286343612335</v>
+      </c>
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="P28" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q28">
+        <v>55.26425053720713</v>
+      </c>
+      <c r="R28">
+        <v>194.01</v>
+      </c>
+      <c r="S28">
+        <v>26.877131501</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
+      </c>
+      <c r="U28">
+        <v>55.26425053720713</v>
+      </c>
+      <c r="V28">
+        <v>385.6389538855481</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>700</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29">
+        <v>0.184548742910731</v>
+      </c>
+      <c r="F29">
+        <v>0.02556285056017599</v>
+      </c>
+      <c r="G29">
+        <v>-14.20205333</v>
+      </c>
+      <c r="H29">
+        <v>-41.65566833</v>
+      </c>
+      <c r="I29" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" t="s">
+        <v>92</v>
+      </c>
+      <c r="M29">
+        <v>4.379939209726444</v>
+      </c>
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P29" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q29">
+        <v>14.95030319989947</v>
+      </c>
+      <c r="R29">
+        <v>286.66</v>
+      </c>
+      <c r="S29">
+        <v>45.172750502</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29">
+        <v>14.95030319989947</v>
+      </c>
+      <c r="V29">
+        <v>229.9072476702703</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>700</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30">
+        <v>0.01223596659670433</v>
+      </c>
+      <c r="F30">
+        <v>0.01628275326193879</v>
+      </c>
+      <c r="G30">
+        <v>-14.202245</v>
+      </c>
+      <c r="H30">
+        <v>-41.64817833</v>
+      </c>
+      <c r="I30" t="s">
+        <v>89</v>
+      </c>
+      <c r="J30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" t="s">
+        <v>92</v>
+      </c>
+      <c r="M30">
+        <v>8.408590308370044</v>
+      </c>
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30">
         <v>0.2857142857142857</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P30" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q30">
+        <v>54.82240005230658</v>
+      </c>
+      <c r="R30">
+        <v>93.73</v>
+      </c>
+      <c r="S30">
+        <v>34.220412758</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>54.82240005230658</v>
+      </c>
+      <c r="V30">
+        <v>712.6054175043585</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>700</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31">
+        <v>0.2507480016076452</v>
+      </c>
+      <c r="F31">
+        <v>0.02474698983073991</v>
+      </c>
+      <c r="G31">
+        <v>-14.20038666</v>
+      </c>
+      <c r="H31">
+        <v>-41.65639166</v>
+      </c>
+      <c r="I31" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" t="s">
+        <v>90</v>
+      </c>
+      <c r="M31">
+        <v>4.370820668693009</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P31" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q31">
+        <v>15.49751769071515</v>
+      </c>
+      <c r="R31">
+        <v>360.78</v>
+      </c>
+      <c r="S31">
+        <v>44.209874578</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>15.49751769071515</v>
+      </c>
+      <c r="V31">
+        <v>205.3609247812944</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>700</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32">
+        <v>0.06583307283526102</v>
+      </c>
+      <c r="F32">
+        <v>0.01213488098615694</v>
+      </c>
+      <c r="G32">
+        <v>-14.19533833</v>
+      </c>
+      <c r="H32">
+        <v>-41.65579166</v>
+      </c>
+      <c r="I32" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" t="s">
+        <v>93</v>
+      </c>
+      <c r="M32">
+        <v>8.353524229074889</v>
+      </c>
+      <c r="N32" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P32" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q32">
+        <v>54.60346901369486</v>
+      </c>
+      <c r="R32">
+        <v>153.74</v>
+      </c>
+      <c r="S32">
+        <v>29.325108687</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>54.60346901369486</v>
+      </c>
+      <c r="V32">
+        <v>572.7478874514331</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>700</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33">
+        <v>0.30491671504488</v>
+      </c>
+      <c r="F33">
+        <v>0.03269593320496974</v>
+      </c>
+      <c r="G33">
+        <v>-14.19712166</v>
+      </c>
+      <c r="H33">
+        <v>-41.65043333</v>
+      </c>
+      <c r="I33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" t="s">
+        <v>92</v>
+      </c>
+      <c r="M33">
+        <v>4.421732522796352</v>
+      </c>
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P33" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q33">
+        <v>18.41786941623811</v>
+      </c>
+      <c r="R33">
+        <v>421.43</v>
+      </c>
+      <c r="S33">
+        <v>53.591189207</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
+        <v>18.41786941623811</v>
+      </c>
+      <c r="V33">
+        <v>564.2585295304006</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>700</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
         <v>61</v>
       </c>
-      <c r="Q21">
-        <v>54.43527831006703</v>
-      </c>
-      <c r="R21">
-        <v>178.55</v>
-      </c>
-      <c r="S21">
-        <v>26.59414694</v>
-      </c>
-      <c r="T21">
+      <c r="E34">
+        <v>0.1733577457241102</v>
+      </c>
+      <c r="F34">
+        <v>0.005918148373702039</v>
+      </c>
+      <c r="G34">
+        <v>-14.20170333</v>
+      </c>
+      <c r="H34">
+        <v>-41.66018166</v>
+      </c>
+      <c r="I34" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" t="s">
+        <v>90</v>
+      </c>
+      <c r="M34">
+        <v>6.159691629955947</v>
+      </c>
+      <c r="N34" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P34" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q34">
+        <v>28.76596914605877</v>
+      </c>
+      <c r="R34">
+        <v>274.13</v>
+      </c>
+      <c r="S34">
+        <v>21.988143023</v>
+      </c>
+      <c r="T34">
         <v>3</v>
       </c>
-      <c r="U21">
-        <v>54.43527831006703</v>
-      </c>
-      <c r="V21">
-        <v>1319.553232489443</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>1500</v>
-      </c>
-      <c r="Y21" t="s">
+      <c r="U34">
+        <v>28.76596914605877</v>
+      </c>
+      <c r="V34">
+        <v>632.4871789709971</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>700</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
         <v>62</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="E35">
+        <v>0.2628857232170768</v>
+      </c>
+      <c r="F35">
+        <v>0.01145346436733668</v>
+      </c>
+      <c r="G35">
+        <v>-14.20060833</v>
+      </c>
+      <c r="H35">
+        <v>-41.66036</v>
+      </c>
+      <c r="I35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" t="s">
+        <v>90</v>
+      </c>
+      <c r="M35">
+        <v>5.104625550660793</v>
+      </c>
+      <c r="N35" t="b">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P35" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q35">
+        <v>20.1059885278995</v>
+      </c>
+      <c r="R35">
+        <v>374.37</v>
+      </c>
+      <c r="S35">
+        <v>28.520903223</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
+        <v>20.1059885278995</v>
+      </c>
+      <c r="V35">
+        <v>633.7928607078619</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>700</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
         <v>63</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="E36">
+        <v>0.03435895145804492</v>
+      </c>
+      <c r="F36">
+        <v>0.004430380010281718</v>
+      </c>
+      <c r="G36">
+        <v>-14.20056833</v>
+      </c>
+      <c r="H36">
+        <v>-41.65779333</v>
+      </c>
+      <c r="I36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" t="s">
+        <v>90</v>
+      </c>
+      <c r="M36">
+        <v>7.279735682819383</v>
+      </c>
+      <c r="N36" t="b">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P36" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q36">
+        <v>37.84631273413896</v>
+      </c>
+      <c r="R36">
+        <v>118.5</v>
+      </c>
+      <c r="S36">
+        <v>20.232284105</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>37.84631273413896</v>
+      </c>
+      <c r="V36">
+        <v>357.3366095562832</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>700</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
         <v>64</v>
+      </c>
+      <c r="E37">
+        <v>0.1069798597776091</v>
+      </c>
+      <c r="F37">
+        <v>0.01439066716545652</v>
+      </c>
+      <c r="G37">
+        <v>-14.19823166</v>
+      </c>
+      <c r="H37">
+        <v>-41.65312166</v>
+      </c>
+      <c r="I37" t="s">
+        <v>89</v>
+      </c>
+      <c r="J37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" t="s">
+        <v>92</v>
+      </c>
+      <c r="M37">
+        <v>7.263215859030837</v>
+      </c>
+      <c r="N37" t="b">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P37" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q37">
+        <v>43.77053299285905</v>
+      </c>
+      <c r="R37">
+        <v>199.81</v>
+      </c>
+      <c r="S37">
+        <v>31.987379493</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="U37">
+        <v>43.77053299285905</v>
+      </c>
+      <c r="V37">
+        <v>276.0409111412903</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>700</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
+      <c r="A38" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38">
+        <v>0.2089492252043049</v>
+      </c>
+      <c r="F38">
+        <v>0.02938896949230121</v>
+      </c>
+      <c r="G38">
+        <v>-14.20116333</v>
+      </c>
+      <c r="H38">
+        <v>-41.65419166</v>
+      </c>
+      <c r="I38" t="s">
+        <v>89</v>
+      </c>
+      <c r="J38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" t="s">
+        <v>92</v>
+      </c>
+      <c r="M38">
+        <v>6.179515418502203</v>
+      </c>
+      <c r="N38" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q38">
+        <v>36.94541712154737</v>
+      </c>
+      <c r="R38">
+        <v>313.98</v>
+      </c>
+      <c r="S38">
+        <v>49.688322424</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
+        <v>36.94541712154737</v>
+      </c>
+      <c r="V38">
+        <v>97.82806944512537</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>700</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="A39" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39">
+        <v>0.2143884249542267</v>
+      </c>
+      <c r="F39">
+        <v>0.009315758253283835</v>
+      </c>
+      <c r="G39">
+        <v>-14.19900166</v>
+      </c>
+      <c r="H39">
+        <v>-41.65896666</v>
+      </c>
+      <c r="I39" t="s">
+        <v>89</v>
+      </c>
+      <c r="J39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" t="s">
+        <v>28</v>
+      </c>
+      <c r="L39" t="s">
+        <v>90</v>
+      </c>
+      <c r="M39">
+        <v>5.069383259911894</v>
+      </c>
+      <c r="N39" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P39" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q39">
+        <v>18.27382082794187</v>
+      </c>
+      <c r="R39">
+        <v>320.07</v>
+      </c>
+      <c r="S39">
+        <v>25.997990089</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>18.27382082794187</v>
+      </c>
+      <c r="V39">
+        <v>504.9868311403796</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>700</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40">
+        <v>0.3316482829455634</v>
+      </c>
+      <c r="F40">
+        <v>0.01935623223094562</v>
+      </c>
+      <c r="G40">
+        <v>-14.20118333</v>
+      </c>
+      <c r="H40">
+        <v>-41.66048166</v>
+      </c>
+      <c r="I40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J40" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" t="s">
+        <v>90</v>
+      </c>
+      <c r="M40">
+        <v>5.104625550660793</v>
+      </c>
+      <c r="N40" t="b">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P40" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q40">
+        <v>23.38193973724255</v>
+      </c>
+      <c r="R40">
+        <v>451.36</v>
+      </c>
+      <c r="S40">
+        <v>37.847721679</v>
+      </c>
+      <c r="T40">
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <v>23.38193973724255</v>
+      </c>
+      <c r="V40">
+        <v>653.0632776440873</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>700</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="A41" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41">
+        <v>0.294985039967847</v>
+      </c>
+      <c r="F41">
+        <v>0.01391596799201253</v>
+      </c>
+      <c r="G41">
+        <v>-14.20324333</v>
+      </c>
+      <c r="H41">
+        <v>-41.654655</v>
+      </c>
+      <c r="I41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J41" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" t="s">
+        <v>90</v>
+      </c>
+      <c r="M41">
+        <v>5.069383259911894</v>
+      </c>
+      <c r="N41" t="b">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P41" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q41">
+        <v>20.92407033678242</v>
+      </c>
+      <c r="R41">
+        <v>410.31</v>
+      </c>
+      <c r="S41">
+        <v>31.427141221</v>
+      </c>
+      <c r="T41">
+        <v>3</v>
+      </c>
+      <c r="U41">
+        <v>20.92407033678242</v>
+      </c>
+      <c r="V41">
+        <v>324.2752222081443</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>700</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="A42" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42">
+        <v>0.2258295002902693</v>
+      </c>
+      <c r="F42">
+        <v>0.03518253059672256</v>
+      </c>
+      <c r="G42">
+        <v>-14.19784833</v>
+      </c>
+      <c r="H42">
+        <v>-41.65334666</v>
+      </c>
+      <c r="I42" t="s">
+        <v>89</v>
+      </c>
+      <c r="J42" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42" t="s">
+        <v>94</v>
+      </c>
+      <c r="M42">
+        <v>7.266519823788546</v>
+      </c>
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q42">
+        <v>50.89619503107844</v>
+      </c>
+      <c r="R42">
+        <v>332.88</v>
+      </c>
+      <c r="S42">
+        <v>56.525862583</v>
+      </c>
+      <c r="T42">
+        <v>3</v>
+      </c>
+      <c r="U42">
+        <v>50.89619503107844</v>
+      </c>
+      <c r="V42">
+        <v>302.2704993424302</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>700</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="A43" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43">
+        <v>0.09855758495958557</v>
+      </c>
+      <c r="F43">
+        <v>0.02924846718087198</v>
+      </c>
+      <c r="G43">
+        <v>-14.201385</v>
+      </c>
+      <c r="H43">
+        <v>-41.65047833</v>
+      </c>
+      <c r="I43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43" t="s">
+        <v>92</v>
+      </c>
+      <c r="M43">
+        <v>8.447136563876652</v>
+      </c>
+      <c r="N43" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P43" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q43">
+        <v>61.26205317084025</v>
+      </c>
+      <c r="R43">
+        <v>190.38</v>
+      </c>
+      <c r="S43">
+        <v>49.522502097</v>
+      </c>
+      <c r="T43">
+        <v>7</v>
+      </c>
+      <c r="U43">
+        <v>61.26205317084025</v>
+      </c>
+      <c r="V43">
+        <v>447.7628541458936</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>700</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="A44" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44">
+        <v>0.1917295583441254</v>
+      </c>
+      <c r="F44">
+        <v>0.008305913948494805</v>
+      </c>
+      <c r="G44">
+        <v>-14.19917833</v>
+      </c>
+      <c r="H44">
+        <v>-41.65870833</v>
+      </c>
+      <c r="I44" t="s">
+        <v>89</v>
+      </c>
+      <c r="J44" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" t="s">
+        <v>90</v>
+      </c>
+      <c r="M44">
+        <v>5.069383259911894</v>
+      </c>
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P44" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q44">
+        <v>17.54002846077682</v>
+      </c>
+      <c r="R44">
+        <v>294.7</v>
+      </c>
+      <c r="S44">
+        <v>24.806175441</v>
+      </c>
+      <c r="T44">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>17.54002846077682</v>
+      </c>
+      <c r="V44">
+        <v>472.7268200423077</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>700</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="A45" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45">
+        <v>0.1347921225382932</v>
+      </c>
+      <c r="F45">
+        <v>0.02049803866376337</v>
+      </c>
+      <c r="G45">
+        <v>-14.19979333</v>
+      </c>
+      <c r="H45">
+        <v>-41.648515</v>
+      </c>
+      <c r="I45" t="s">
+        <v>89</v>
+      </c>
+      <c r="J45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" t="s">
+        <v>92</v>
+      </c>
+      <c r="M45">
+        <v>6.231277533039647</v>
+      </c>
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P45" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q45">
+        <v>34.24153075256555</v>
+      </c>
+      <c r="R45">
+        <v>230.95</v>
+      </c>
+      <c r="S45">
+        <v>39.19527756</v>
+      </c>
+      <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45">
+        <v>34.24153075256555</v>
+      </c>
+      <c r="V45">
+        <v>646.5893855568185</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>700</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
+      <c r="A46" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46">
+        <v>0.06176930290715848</v>
+      </c>
+      <c r="F46">
+        <v>0.007252621813753683</v>
+      </c>
+      <c r="G46">
+        <v>-14.201795</v>
+      </c>
+      <c r="H46">
+        <v>-41.64796166</v>
+      </c>
+      <c r="I46" t="s">
+        <v>89</v>
+      </c>
+      <c r="J46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" t="s">
+        <v>92</v>
+      </c>
+      <c r="M46">
+        <v>8.388766519823788</v>
+      </c>
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P46" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q46">
+        <v>52.90077079382621</v>
+      </c>
+      <c r="R46">
+        <v>149.19</v>
+      </c>
+      <c r="S46">
+        <v>23.563083819</v>
+      </c>
+      <c r="T46">
+        <v>2</v>
+      </c>
+      <c r="U46">
+        <v>52.90077079382621</v>
+      </c>
+      <c r="V46">
+        <v>722.0345002864923</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>700</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="A47" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47">
+        <v>0.2200419774036529</v>
+      </c>
+      <c r="F47">
+        <v>0.03222182759457972</v>
+      </c>
+      <c r="G47">
+        <v>-14.20142</v>
+      </c>
+      <c r="H47">
+        <v>-41.64857666</v>
+      </c>
+      <c r="I47" t="s">
+        <v>89</v>
+      </c>
+      <c r="J47" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" t="s">
+        <v>92</v>
+      </c>
+      <c r="M47">
+        <v>6.227973568281938</v>
+      </c>
+      <c r="N47" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P47" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q47">
+        <v>38.24348079042782</v>
+      </c>
+      <c r="R47">
+        <v>326.4</v>
+      </c>
+      <c r="S47">
+        <v>53.031651456</v>
+      </c>
+      <c r="T47">
+        <v>3</v>
+      </c>
+      <c r="U47">
+        <v>38.24348079042782</v>
+      </c>
+      <c r="V47">
+        <v>648.5567687473634</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>700</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
+      <c r="A48" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48">
+        <v>0.05742866074219623</v>
+      </c>
+      <c r="F48">
+        <v>0.00917922688759098</v>
+      </c>
+      <c r="G48">
+        <v>-14.202095</v>
+      </c>
+      <c r="H48">
+        <v>-41.65133666</v>
+      </c>
+      <c r="I48" t="s">
+        <v>89</v>
+      </c>
+      <c r="J48" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" t="s">
+        <v>92</v>
+      </c>
+      <c r="M48">
+        <v>6.244493392070485</v>
+      </c>
+      <c r="N48" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P48" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q48">
+        <v>28.84995060352964</v>
+      </c>
+      <c r="R48">
+        <v>144.33</v>
+      </c>
+      <c r="S48">
+        <v>25.836856258</v>
+      </c>
+      <c r="T48">
+        <v>3</v>
+      </c>
+      <c r="U48">
+        <v>28.84995060352964</v>
+      </c>
+      <c r="V48">
+        <v>392.1821295878907</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="X48">
+        <v>700</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
+      <c r="A49" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49">
+        <v>0.3575670968606261</v>
+      </c>
+      <c r="F49">
+        <v>0.03468036312643411</v>
+      </c>
+      <c r="G49">
+        <v>-14.199435</v>
+      </c>
+      <c r="H49">
+        <v>-41.65797333</v>
+      </c>
+      <c r="I49" t="s">
+        <v>89</v>
+      </c>
+      <c r="J49" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" t="s">
+        <v>90</v>
+      </c>
+      <c r="M49">
+        <v>7.307268722466961</v>
+      </c>
+      <c r="N49" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="P49" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q49">
+        <v>52.62539730818051</v>
+      </c>
+      <c r="R49">
+        <v>480.38</v>
+      </c>
+      <c r="S49">
+        <v>55.933206325</v>
+      </c>
+      <c r="T49">
+        <v>4</v>
+      </c>
+      <c r="U49">
+        <v>52.62539730818051</v>
+      </c>
+      <c r="V49">
+        <v>388.7701570735161</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <v>700</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
+      <c r="A50" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50">
+        <v>0.2217300049122494</v>
+      </c>
+      <c r="F50">
+        <v>0.02457886455414608</v>
+      </c>
+      <c r="G50">
+        <v>-14.19693666</v>
+      </c>
+      <c r="H50">
+        <v>-41.654125</v>
+      </c>
+      <c r="I50" t="s">
+        <v>89</v>
+      </c>
+      <c r="J50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" t="s">
+        <v>94</v>
+      </c>
+      <c r="M50">
+        <v>4.452887537993921</v>
+      </c>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P50" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q50">
+        <v>16.0558708864843</v>
+      </c>
+      <c r="R50">
+        <v>328.29</v>
+      </c>
+      <c r="S50">
+        <v>44.011453726</v>
+      </c>
+      <c r="T50">
+        <v>2</v>
+      </c>
+      <c r="U50">
+        <v>16.0558708864843</v>
+      </c>
+      <c r="V50">
+        <v>379.5143919916683</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <v>700</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
+      <c r="A51" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51">
+        <v>0.1840217925244496</v>
+      </c>
+      <c r="F51">
+        <v>0.01692653918751302</v>
+      </c>
+      <c r="G51">
+        <v>-14.19793333</v>
+      </c>
+      <c r="H51">
+        <v>-41.65213166</v>
+      </c>
+      <c r="I51" t="s">
+        <v>89</v>
+      </c>
+      <c r="J51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" t="s">
+        <v>92</v>
+      </c>
+      <c r="M51">
+        <v>4.385258358662614</v>
+      </c>
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P51" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q51">
+        <v>12.66768892991696</v>
+      </c>
+      <c r="R51">
+        <v>286.07</v>
+      </c>
+      <c r="S51">
+        <v>34.980206612</v>
+      </c>
+      <c r="T51">
+        <v>2</v>
+      </c>
+      <c r="U51">
+        <v>12.66768892991696</v>
+      </c>
+      <c r="V51">
+        <v>368.2447921561057</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>700</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
+      <c r="A52" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52">
+        <v>0.1115884428169517</v>
+      </c>
+      <c r="F52">
+        <v>0.01069226224566244</v>
+      </c>
+      <c r="G52">
+        <v>-14.19932</v>
+      </c>
+      <c r="H52">
+        <v>-41.65817833</v>
+      </c>
+      <c r="I52" t="s">
+        <v>89</v>
+      </c>
+      <c r="J52" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" t="s">
+        <v>28</v>
+      </c>
+      <c r="L52" t="s">
+        <v>90</v>
+      </c>
+      <c r="M52">
+        <v>5.112334801762114</v>
+      </c>
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P52" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q52">
+        <v>17.67767404142736</v>
+      </c>
+      <c r="R52">
+        <v>204.97</v>
+      </c>
+      <c r="S52">
+        <v>27.622535193</v>
+      </c>
+      <c r="T52">
+        <v>2</v>
+      </c>
+      <c r="U52">
+        <v>17.67767404142736</v>
+      </c>
+      <c r="V52">
+        <v>413.4631251026456</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>700</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
+      <c r="A53" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53">
+        <v>0.06992363685080158</v>
+      </c>
+      <c r="F53">
+        <v>0.02339822718466648</v>
+      </c>
+      <c r="G53">
+        <v>-14.20060833</v>
+      </c>
+      <c r="H53">
+        <v>-41.64898333</v>
+      </c>
+      <c r="I53" t="s">
+        <v>89</v>
+      </c>
+      <c r="J53" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" t="s">
+        <v>28</v>
+      </c>
+      <c r="L53" t="s">
+        <v>92</v>
+      </c>
+      <c r="M53">
+        <v>8.388766519823788</v>
+      </c>
+      <c r="N53" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P53" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q53">
+        <v>58.53474900064638</v>
+      </c>
+      <c r="R53">
+        <v>158.32</v>
+      </c>
+      <c r="S53">
+        <v>42.618069712</v>
+      </c>
+      <c r="T53">
+        <v>3</v>
+      </c>
+      <c r="U53">
+        <v>58.53474900064638</v>
+      </c>
+      <c r="V53">
+        <v>594.1251075826258</v>
+      </c>
+      <c r="W53">
+        <v>1</v>
+      </c>
+      <c r="X53">
+        <v>700</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
+      <c r="A54" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54">
+        <v>0.1706247488054302</v>
+      </c>
+      <c r="F54">
+        <v>0.02194388554314081</v>
+      </c>
+      <c r="G54">
+        <v>-14.200545</v>
+      </c>
+      <c r="H54">
+        <v>-41.65856833</v>
+      </c>
+      <c r="I54" t="s">
+        <v>89</v>
+      </c>
+      <c r="J54" t="s">
+        <v>28</v>
+      </c>
+      <c r="K54" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" t="s">
+        <v>90</v>
+      </c>
+      <c r="M54">
+        <v>6.192731277533039</v>
+      </c>
+      <c r="N54" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P54" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q54">
+        <v>34.77724274077742</v>
+      </c>
+      <c r="R54">
+        <v>271.07</v>
+      </c>
+      <c r="S54">
+        <v>40.901660892</v>
+      </c>
+      <c r="T54">
+        <v>3</v>
+      </c>
+      <c r="U54">
+        <v>34.77724274077742</v>
+      </c>
+      <c r="V54">
+        <v>440.5480600215848</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <v>700</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
+      <c r="A55" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55">
+        <v>0.09837895770999866</v>
+      </c>
+      <c r="F55">
+        <v>0.005083960275731281</v>
+      </c>
+      <c r="G55">
+        <v>-14.20149833</v>
+      </c>
+      <c r="H55">
+        <v>-41.65053833</v>
+      </c>
+      <c r="I55" t="s">
+        <v>89</v>
+      </c>
+      <c r="J55" t="s">
+        <v>28</v>
+      </c>
+      <c r="K55" t="s">
+        <v>28</v>
+      </c>
+      <c r="L55" t="s">
+        <v>92</v>
+      </c>
+      <c r="M55">
+        <v>5.143171806167401</v>
+      </c>
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P55" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q55">
+        <v>15.25430612697459</v>
+      </c>
+      <c r="R55">
+        <v>190.18</v>
+      </c>
+      <c r="S55">
+        <v>21.003637204</v>
+      </c>
+      <c r="T55">
+        <v>2</v>
+      </c>
+      <c r="U55">
+        <v>15.25430612697459</v>
+      </c>
+      <c r="V55">
+        <v>445.0324995988009</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <v>700</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
+      <c r="A56" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56">
+        <v>0.1884338855892466</v>
+      </c>
+      <c r="F56">
+        <v>0.01633288881417904</v>
+      </c>
+      <c r="G56">
+        <v>-14.20174166</v>
+      </c>
+      <c r="H56">
+        <v>-41.65701166</v>
+      </c>
+      <c r="I56" t="s">
+        <v>89</v>
+      </c>
+      <c r="J56" t="s">
+        <v>28</v>
+      </c>
+      <c r="K56" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56" t="s">
+        <v>90</v>
+      </c>
+      <c r="M56">
+        <v>4.38145896656535</v>
+      </c>
+      <c r="N56" t="b">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P56" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q56">
+        <v>12.50217208761937</v>
+      </c>
+      <c r="R56">
+        <v>291.01</v>
+      </c>
+      <c r="S56">
+        <v>34.279582558</v>
+      </c>
+      <c r="T56">
+        <v>2</v>
+      </c>
+      <c r="U56">
+        <v>12.50217208761937</v>
+      </c>
+      <c r="V56">
+        <v>314.0451147560121</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="X56">
+        <v>700</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
+      <c r="A57" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57">
+        <v>0.3130710489885232</v>
+      </c>
+      <c r="F57">
+        <v>0.03545463072479351</v>
+      </c>
+      <c r="G57">
+        <v>-14.201475</v>
+      </c>
+      <c r="H57">
+        <v>-41.65911333</v>
+      </c>
+      <c r="I57" t="s">
+        <v>89</v>
+      </c>
+      <c r="J57" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57" t="s">
+        <v>28</v>
+      </c>
+      <c r="L57" t="s">
+        <v>90</v>
+      </c>
+      <c r="M57">
+        <v>4.454407294832826</v>
+      </c>
+      <c r="N57" t="b">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P57" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q57">
+        <v>19.41337703964665</v>
+      </c>
+      <c r="R57">
+        <v>430.56</v>
+      </c>
+      <c r="S57">
+        <v>56.846994184</v>
+      </c>
+      <c r="T57">
+        <v>2</v>
+      </c>
+      <c r="U57">
+        <v>19.41337703964665</v>
+      </c>
+      <c r="V57">
+        <v>514.6104208309865</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <v>700</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
+      <c r="A58" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58">
+        <v>0.0798195864779172</v>
+      </c>
+      <c r="F58">
+        <v>0.0111766665323099</v>
+      </c>
+      <c r="G58">
+        <v>-14.19996833</v>
+      </c>
+      <c r="H58">
+        <v>-41.65594666</v>
+      </c>
+      <c r="I58" t="s">
+        <v>89</v>
+      </c>
+      <c r="J58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K58" t="s">
+        <v>28</v>
+      </c>
+      <c r="L58" t="s">
+        <v>92</v>
+      </c>
+      <c r="M58">
+        <v>6.244493392070485</v>
+      </c>
+      <c r="N58" t="b">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P58" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q58">
+        <v>30.23931798079319</v>
+      </c>
+      <c r="R58">
+        <v>169.4</v>
+      </c>
+      <c r="S58">
+        <v>28.194227405</v>
+      </c>
+      <c r="T58">
+        <v>3</v>
+      </c>
+      <c r="U58">
+        <v>30.23931798079319</v>
+      </c>
+      <c r="V58">
+        <v>162.4030664256295</v>
+      </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="X58">
+        <v>700</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
+      <c r="A59" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59">
+        <v>0.2350555977314339</v>
+      </c>
+      <c r="F59">
+        <v>0.02009204419457344</v>
+      </c>
+      <c r="G59">
+        <v>-14.202565</v>
+      </c>
+      <c r="H59">
+        <v>-41.65911333</v>
+      </c>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+      <c r="J59" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59" t="s">
+        <v>28</v>
+      </c>
+      <c r="L59" t="s">
+        <v>90</v>
+      </c>
+      <c r="M59">
+        <v>4.473404255319149</v>
+      </c>
+      <c r="N59" t="b">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P59" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q59">
+        <v>15.28572441968936</v>
+      </c>
+      <c r="R59">
+        <v>343.21</v>
+      </c>
+      <c r="S59">
+        <v>38.716124335</v>
+      </c>
+      <c r="T59">
+        <v>2</v>
+      </c>
+      <c r="U59">
+        <v>15.28572441968936</v>
+      </c>
+      <c r="V59">
+        <v>557.0751194277484</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>700</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
+      <c r="A60" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60">
+        <v>0.05602643683293885</v>
+      </c>
+      <c r="F60">
+        <v>0.01050978932955389</v>
+      </c>
+      <c r="G60">
+        <v>-14.20042333</v>
+      </c>
+      <c r="H60">
+        <v>-41.65556833</v>
+      </c>
+      <c r="I60" t="s">
+        <v>89</v>
+      </c>
+      <c r="J60" t="s">
+        <v>28</v>
+      </c>
+      <c r="K60" t="s">
+        <v>28</v>
+      </c>
+      <c r="L60" t="s">
+        <v>92</v>
+      </c>
+      <c r="M60">
+        <v>6.227973568281938</v>
+      </c>
+      <c r="N60" t="b">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P60" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q60">
+        <v>29.15783262569857</v>
+      </c>
+      <c r="R60">
+        <v>142.76</v>
+      </c>
+      <c r="S60">
+        <v>27.407181308</v>
+      </c>
+      <c r="T60">
+        <v>3</v>
+      </c>
+      <c r="U60">
+        <v>29.15783262569857</v>
+      </c>
+      <c r="V60">
+        <v>116.9626603205525</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="X60">
+        <v>700</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
+      <c r="A61" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61">
+        <v>0.5521100343857456</v>
+      </c>
+      <c r="F61">
+        <v>0.03463195996292177</v>
+      </c>
+      <c r="G61">
+        <v>-14.20088666</v>
+      </c>
+      <c r="H61">
+        <v>-41.64914666</v>
+      </c>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+      <c r="J61" t="s">
+        <v>28</v>
+      </c>
+      <c r="K61" t="s">
+        <v>28</v>
+      </c>
+      <c r="L61" t="s">
+        <v>92</v>
+      </c>
+      <c r="M61">
+        <v>6.231277533039647</v>
+      </c>
+      <c r="N61" t="b">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="P61" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q61">
+        <v>41.5675586811495</v>
+      </c>
+      <c r="R61">
+        <v>698.2</v>
+      </c>
+      <c r="S61">
+        <v>55.876081084</v>
+      </c>
+      <c r="T61">
+        <v>4</v>
+      </c>
+      <c r="U61">
+        <v>41.5675586811495</v>
+      </c>
+      <c r="V61">
+        <v>579.0198505180986</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>700</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2545,9 +5967,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A952B6C-03D0-4048-84E8-D6B09EAC606E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AADF16F4-3E5D-4E17-8797-69FFFA41590D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37E72F08-7EF4-469F-A4C4-35C950DFB490}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{257FADD8-C79D-4499-8CEC-96AE568FA957}"/>
 </file>